--- a/public/tpl/product.xlsx
+++ b/public/tpl/product.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>product_code</t>
   </si>
@@ -44,10 +44,32 @@
     <t>product_color</t>
   </si>
   <si>
-    <t>jalan</t>
-  </si>
-  <si>
-    <t>jalan2</t>
+    <t xml:space="preserve">Tes Product </t>
+  </si>
+  <si>
+    <t>Tes Keterangan product</t>
+  </si>
+  <si>
+    <t>tes.jpg</t>
+  </si>
+  <si>
+    <t>MERAH,BIRU,KUNING</t>
+  </si>
+  <si>
+    <t>Tes Product 01</t>
+  </si>
+  <si>
+    <t>Tes Keterangan product 01</t>
+  </si>
+  <si>
+    <t>tes01.jpg</t>
+  </si>
+  <si>
+    <t>MERAH,HITAM,BIRU</t>
+  </si>
+  <si>
+    <t>NOTES : 
+1. APABILA TIDAK ADA DISCOUNT MAKA KOLOM CUKUP DIISI KOSONG</t>
   </si>
 </sst>
 </file>
@@ -55,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,24 +91,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,61 +116,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,19 +137,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,6 +192,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -198,6 +228,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -205,15 +236,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,187 +266,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +496,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -461,28 +526,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,32 +568,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,7 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,139 +607,151 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1013,7 +1075,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1066,25 +1128,136 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="15.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="17.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="19.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="17.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="19.7142857142857" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="2">
+        <v>45000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>321</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23000</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:C8"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/public/tpl/product.xlsx
+++ b/public/tpl/product.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8820" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,6 +104,50 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,72 +159,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,16 +190,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +229,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -223,29 +246,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,13 +278,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,169 +428,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,45 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,11 +526,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,20 +575,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,141 +607,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1074,8 +1071,8 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1083,7 +1080,8 @@
     <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
-    <col min="4" max="5" width="19.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="19.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="12.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="15.7142857142857" customWidth="1"/>
     <col min="7" max="7" width="19.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="15.8571428571429" customWidth="1"/>
@@ -1130,7 +1128,7 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1180,13 +1178,13 @@
       <c r="A2" s="2">
         <v>123</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>45000</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2">
@@ -1198,10 +1196,10 @@
       <c r="G2" s="2">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1209,13 +1207,13 @@
       <c r="A3" s="2">
         <v>321</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>23000</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2">
@@ -1225,34 +1223,34 @@
         <v>25</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/public/tpl/product.xlsx
+++ b/public/tpl/product.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8820"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>product_code</t>
   </si>
@@ -29,7 +29,16 @@
     <t>product_description</t>
   </si>
   <si>
-    <t>category_id</t>
+    <t>Dimension Item</t>
+  </si>
+  <si>
+    <t>Kapasitas</t>
+  </si>
+  <si>
+    <t>Berat Item</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
   <si>
     <t>product_stock</t>
@@ -44,9 +53,27 @@
     <t>product_color</t>
   </si>
   <si>
+    <t>Panjang</t>
+  </si>
+  <si>
+    <t>Lebar</t>
+  </si>
+  <si>
+    <t>Tinggi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tes Product </t>
   </si>
   <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>5 L</t>
+  </si>
+  <si>
+    <t>0.21 kg</t>
+  </si>
+  <si>
     <t>Tes Keterangan product</t>
   </si>
   <si>
@@ -57,6 +84,12 @@
   </si>
   <si>
     <t>Tes Product 01</t>
+  </si>
+  <si>
+    <t>10 L</t>
+  </si>
+  <si>
+    <t>1.26 kg</t>
   </si>
   <si>
     <t>Tes Keterangan product 01</t>
@@ -79,10 +112,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +132,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +155,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,6 +262,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -145,107 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,49 +325,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,49 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,78 +505,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -488,25 +535,38 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +582,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,29 +647,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,148 +691,190 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1069,26 +1195,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="19.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="12.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="15.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="19.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="15.8571428571429" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="4" max="10" width="19.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="12.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="15.7142857142857" customWidth="1"/>
+    <col min="13" max="13" width="19.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="15.8571428571429" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,23 +1227,72 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1126,26 +1301,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="15.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="17.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="19.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="17.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="19.7142857142857" customWidth="1"/>
+    <col min="3" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="15.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="17.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="19.2857142857143" customWidth="1"/>
+    <col min="14" max="14" width="17.1428571428571" customWidth="1"/>
+    <col min="15" max="15" width="19.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,106 +1330,207 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="7">
+        <v>123</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45000</v>
+      </c>
+      <c r="D3" s="8">
+        <v>27.9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="F3" s="8">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>50</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2">
-        <v>123</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
+    <row r="4" spans="1:15">
+      <c r="A4" s="7">
+        <v>321</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7">
+        <v>23000</v>
+      </c>
+      <c r="D4" s="8">
+        <v>41.5</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>50</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
+      <c r="F4" s="8">
+        <v>22.6</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="7">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7">
+        <v>25</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2">
-        <v>321</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>23000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="6" spans="1:9">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:C8"/>
+  <mergeCells count="13">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A6:C9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
